--- a/tuf.xlsx
+++ b/tuf.xlsx
@@ -32,7 +32,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -41,17 +41,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFBCD9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
+        <fgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -66,12 +56,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00800080"/>
+        <fgColor rgb="00008000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC0CB"/>
+        <fgColor rgb="00800080"/>
       </patternFill>
     </fill>
     <fill>
@@ -79,47 +69,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00703642"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00013220"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00000080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A52A2A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB200"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B31B1B"/>
       </patternFill>
     </fill>
   </fills>
@@ -142,28 +92,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -7028,7 +6968,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="GM4" s="8" t="inlineStr">
+      <c r="GM4" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -7143,87 +7083,87 @@
           <t>K</t>
         </is>
       </c>
-      <c r="HJ4" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="HK4" s="9" t="inlineStr">
+      <c r="HJ4" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="HK4" s="5" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="HL4" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="HM4" s="9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="HN4" s="9" t="inlineStr">
+      <c r="HL4" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="HM4" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="HN4" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="HO4" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="HP4" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="HQ4" s="9" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="HR4" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="HS4" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="HT4" s="9" t="inlineStr">
+      <c r="HO4" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="HP4" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="HQ4" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="HR4" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="HS4" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="HT4" s="5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="HU4" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="HV4" s="9" t="inlineStr">
+      <c r="HU4" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="HV4" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="HW4" s="9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="HX4" s="9" t="inlineStr">
+      <c r="HW4" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="HX4" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="HY4" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="HZ4" s="9" t="inlineStr">
+      <c r="HY4" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="HZ4" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -7268,17 +7208,17 @@
           <t>M</t>
         </is>
       </c>
-      <c r="II4" s="10" t="inlineStr">
+      <c r="II4" s="2" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="IJ4" s="10" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="IK4" s="10" t="inlineStr">
+      <c r="IJ4" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="IK4" s="2" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -7373,102 +7313,102 @@
           <t>R</t>
         </is>
       </c>
-      <c r="JD4" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="JE4" s="11" t="inlineStr">
+      <c r="JD4" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="JE4" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="JF4" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JG4" s="11" t="inlineStr">
+      <c r="JF4" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JG4" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="JH4" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JI4" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="JJ4" s="11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="JK4" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JL4" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JM4" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JN4" s="11" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="JO4" s="11" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="JP4" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="JQ4" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="JR4" s="11" t="inlineStr">
+      <c r="JH4" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JI4" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="JJ4" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="JK4" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JL4" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JM4" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JN4" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="JO4" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="JP4" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="JQ4" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="JR4" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="JS4" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JT4" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JU4" s="11" t="inlineStr">
+      <c r="JS4" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JT4" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JU4" s="7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="JV4" s="11" t="inlineStr">
+      <c r="JV4" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="JW4" s="11" t="inlineStr">
+      <c r="JW4" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -7558,17 +7498,17 @@
           <t>E</t>
         </is>
       </c>
-      <c r="KO4" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="KP4" s="10" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KQ4" s="10" t="inlineStr">
+      <c r="KO4" s="6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="KP4" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KQ4" s="6" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -12729,42 +12669,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="BJ7" s="8" t="inlineStr">
+      <c r="BJ7" s="7" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="BK7" s="8" t="inlineStr">
+      <c r="BK7" s="7" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="BL7" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BM7" s="8" t="inlineStr">
+      <c r="BL7" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM7" s="7" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="BN7" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="BO7" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BP7" s="8" t="inlineStr">
+      <c r="BN7" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="BO7" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP7" s="7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BQ7" s="8" t="inlineStr">
+      <c r="BQ7" s="7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -12794,7 +12734,7 @@
           <t>E</t>
         </is>
       </c>
-      <c r="BW7" s="11" t="inlineStr">
+      <c r="BW7" s="7" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -12809,7 +12749,7 @@
           <t>I</t>
         </is>
       </c>
-      <c r="BZ7" s="8" t="inlineStr">
+      <c r="BZ7" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -12819,62 +12759,62 @@
           <t>I</t>
         </is>
       </c>
-      <c r="CB7" s="8" t="inlineStr">
+      <c r="CB7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CC7" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD7" s="12" t="inlineStr">
+      <c r="CC7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD7" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="CE7" s="8" t="inlineStr">
+      <c r="CE7" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="CF7" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="CG7" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CH7" s="8" t="inlineStr">
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="CI7" s="8" t="inlineStr">
+      <c r="CI7" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="CJ7" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CL7" s="8" t="inlineStr">
+      <c r="CJ7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="CL7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CM7" s="8" t="inlineStr">
+      <c r="CM7" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -12954,67 +12894,67 @@
           <t>K</t>
         </is>
       </c>
-      <c r="DC7" s="13" t="inlineStr">
+      <c r="DC7" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="DD7" s="13" t="inlineStr">
+      <c r="DD7" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DE7" s="13" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DF7" s="13" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DG7" s="13" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DH7" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DI7" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DJ7" s="13" t="inlineStr">
+      <c r="DE7" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DF7" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DG7" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DH7" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DI7" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DJ7" s="5" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="DK7" s="13" t="inlineStr">
+      <c r="DK7" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DL7" s="13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DM7" s="13" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DN7" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DO7" s="14" t="inlineStr">
+      <c r="DL7" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DM7" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DN7" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO7" s="5" t="inlineStr">
         <is>
           <t>I</t>
         </is>
@@ -13024,67 +12964,67 @@
           <t>L</t>
         </is>
       </c>
-      <c r="DQ7" s="14" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DR7" s="13" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DS7" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DT7" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DU7" s="13" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DV7" s="13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DW7" s="13" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DX7" s="13" t="inlineStr">
+      <c r="DQ7" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DR7" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DS7" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DT7" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DU7" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DV7" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DW7" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DX7" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="DY7" s="13" t="inlineStr">
+      <c r="DY7" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DZ7" s="13" t="inlineStr">
+      <c r="DZ7" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="EA7" s="13" t="inlineStr">
+      <c r="EA7" s="5" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="EB7" s="13" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="EC7" s="13" t="inlineStr">
+      <c r="EB7" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EC7" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -13344,12 +13284,12 @@
           <t>G</t>
         </is>
       </c>
-      <c r="GC7" s="9" t="inlineStr">
+      <c r="GC7" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="GD7" s="9" t="inlineStr">
+      <c r="GD7" s="5" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -13764,12 +13704,12 @@
           <t>T</t>
         </is>
       </c>
-      <c r="JI7" s="10" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="JJ7" s="10" t="inlineStr">
+      <c r="JI7" s="3" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="JJ7" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -13889,87 +13829,87 @@
           <t>R</t>
         </is>
       </c>
-      <c r="KH7" s="8" t="inlineStr">
+      <c r="KH7" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="KI7" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="KJ7" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KK7" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="KL7" s="8" t="inlineStr">
+      <c r="KI7" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="KJ7" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KK7" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="KL7" s="7" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="KM7" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KN7" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="KO7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="KP7" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KQ7" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="KR7" s="8" t="inlineStr">
+      <c r="KM7" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KN7" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="KO7" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="KP7" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KQ7" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="KR7" s="7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="KS7" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="KT7" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KU7" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KV7" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KW7" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KX7" s="8" t="inlineStr">
+      <c r="KS7" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="KT7" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KU7" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KV7" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KW7" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KX7" s="7" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -14806,7 +14746,7 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BA8" s="15" t="inlineStr">
+      <c r="BA8" s="8" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -14816,22 +14756,22 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="BC8" s="15" t="inlineStr">
+      <c r="BC8" s="8" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="BD8" s="15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BE8" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="BF8" s="8" t="inlineStr">
+      <c r="BD8" s="8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -14846,7 +14786,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="BI8" s="11" t="inlineStr">
+      <c r="BI8" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -14931,7 +14871,7 @@
           <t>I</t>
         </is>
       </c>
-      <c r="BZ8" s="12" t="inlineStr">
+      <c r="BZ8" s="4" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -15091,67 +15031,67 @@
           <t>I</t>
         </is>
       </c>
-      <c r="DF8" s="14" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DG8" s="14" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DH8" s="14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DI8" s="14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DJ8" s="14" t="inlineStr">
+      <c r="DF8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DG8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DH8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DI8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DJ8" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="DK8" s="14" t="inlineStr">
+      <c r="DK8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DL8" s="14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DM8" s="14" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DN8" s="14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DO8" s="14" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="DP8" s="14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="DQ8" s="14" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DR8" s="14" t="inlineStr">
+      <c r="DL8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DM8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DN8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO8" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="DP8" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="DQ8" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DR8" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -15646,32 +15586,32 @@
           <t>D</t>
         </is>
       </c>
-      <c r="HM8" s="10" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="HN8" s="10" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="HO8" s="10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="HP8" s="16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="HQ8" s="16" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="HR8" s="16" t="inlineStr">
+      <c r="HM8" s="6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="HN8" s="6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="HO8" s="6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="HP8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="HQ8" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="HR8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -15751,62 +15691,62 @@
           <t>L</t>
         </is>
       </c>
-      <c r="IH8" s="8" t="inlineStr">
+      <c r="IH8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="II8" s="8" t="inlineStr">
+      <c r="II8" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="IJ8" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="IK8" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="IL8" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="IM8" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="IN8" s="8" t="inlineStr">
+      <c r="IJ8" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="IK8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="IL8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="IM8" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="IN8" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="IO8" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="IP8" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="IQ8" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="IR8" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="IS8" s="8" t="inlineStr">
+      <c r="IO8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="IP8" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="IQ8" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="IR8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="IS8" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -15871,77 +15811,77 @@
           <t>R</t>
         </is>
       </c>
-      <c r="JF8" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="JG8" s="11" t="inlineStr">
+      <c r="JF8" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="JG8" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="JH8" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JI8" s="8" t="inlineStr">
+      <c r="JH8" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JI8" s="7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="JJ8" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JK8" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JL8" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JM8" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JN8" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="JO8" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JP8" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="JQ8" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="JR8" s="8" t="inlineStr">
+      <c r="JJ8" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JK8" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JL8" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JM8" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JN8" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="JO8" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JP8" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="JQ8" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="JR8" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="JS8" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JT8" s="8" t="inlineStr">
+      <c r="JS8" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JT8" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -15956,7 +15896,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="JW8" s="8" t="inlineStr">
+      <c r="JW8" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -16011,22 +15951,22 @@
           <t>R</t>
         </is>
       </c>
-      <c r="KH8" s="11" t="inlineStr">
+      <c r="KH8" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="KI8" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KJ8" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KK8" s="11" t="inlineStr">
+      <c r="KI8" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KJ8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KK8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -16061,37 +16001,37 @@
           <t>E</t>
         </is>
       </c>
-      <c r="KR8" s="11" t="inlineStr">
+      <c r="KR8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="KS8" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="KT8" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KU8" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KV8" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KW8" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KX8" s="11" t="inlineStr">
+      <c r="KS8" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="KT8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KU8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KV8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KW8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KX8" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -16141,27 +16081,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="LH8" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="LI8" s="8" t="inlineStr">
+      <c r="LH8" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="LI8" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="LJ8" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="LK8" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="LL8" s="8" t="inlineStr">
+      <c r="LJ8" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="LK8" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="LL8" s="7" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -16171,97 +16111,97 @@
           <t>K</t>
         </is>
       </c>
-      <c r="LN8" s="8" t="inlineStr">
+      <c r="LN8" s="7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="LO8" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="LP8" s="8" t="inlineStr">
+      <c r="LO8" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="LP8" s="7" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="LQ8" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="LR8" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="LS8" s="8" t="inlineStr">
+      <c r="LQ8" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="LR8" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LS8" s="7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="LT8" s="8" t="inlineStr">
+      <c r="LT8" s="7" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="LU8" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="LV8" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="LW8" s="11" t="inlineStr">
+      <c r="LU8" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LV8" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="LW8" s="7" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="LX8" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="LY8" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="LZ8" s="11" t="inlineStr">
+      <c r="LX8" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="LY8" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="LZ8" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="MA8" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="MB8" s="11" t="inlineStr">
+      <c r="MA8" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="MB8" s="7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="MC8" s="11" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="MD8" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="ME8" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="MF8" s="11" t="inlineStr">
+      <c r="MC8" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="MD8" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="ME8" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="MF8" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -16863,17 +16803,17 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AN9" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO9" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP9" s="8" t="inlineStr">
+      <c r="AN9" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO9" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP9" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -18133,7 +18073,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="KH9" s="11" t="inlineStr">
+      <c r="KH9" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -18413,77 +18353,77 @@
           <t>R</t>
         </is>
       </c>
-      <c r="ML9" s="11" t="inlineStr">
+      <c r="ML9" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="MM9" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="MN9" s="11" t="inlineStr">
+      <c r="MM9" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="MN9" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="MO9" s="11" t="inlineStr">
+      <c r="MO9" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="MP9" s="11" t="inlineStr">
+      <c r="MP9" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="MQ9" s="11" t="inlineStr">
+      <c r="MQ9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="MR9" s="11" t="inlineStr">
+      <c r="MR9" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="MS9" s="11" t="inlineStr">
+      <c r="MS9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="MT9" s="11" t="inlineStr">
+      <c r="MT9" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="MU9" s="11" t="inlineStr">
+      <c r="MU9" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="MV9" s="11" t="inlineStr">
+      <c r="MV9" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="MW9" s="11" t="inlineStr">
+      <c r="MW9" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="MX9" s="11" t="inlineStr">
+      <c r="MX9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="MY9" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="MZ9" s="11" t="inlineStr">
+      <c r="MY9" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="MZ9" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -19175,27 +19115,27 @@
           <t>I</t>
         </is>
       </c>
-      <c r="BZ10" s="12" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA10" s="15" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="CB10" s="8" t="inlineStr">
+      <c r="BZ10" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA10" s="8" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CC10" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD10" s="12" t="inlineStr">
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD10" s="4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -19205,42 +19145,42 @@
           <t>H</t>
         </is>
       </c>
-      <c r="CF10" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="CG10" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CH10" s="8" t="inlineStr">
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="CI10" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CJ10" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK10" s="8" t="inlineStr">
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK10" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="CL10" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CM10" s="8" t="inlineStr">
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CM10" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -19320,87 +19260,87 @@
           <t>K</t>
         </is>
       </c>
-      <c r="DC10" s="13" t="inlineStr">
+      <c r="DC10" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="DD10" s="13" t="inlineStr">
+      <c r="DD10" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DE10" s="13" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="DF10" s="13" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DG10" s="13" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DH10" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DI10" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DJ10" s="13" t="inlineStr">
+      <c r="DE10" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="DF10" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DG10" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DH10" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DI10" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DJ10" s="5" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="DK10" s="13" t="inlineStr">
+      <c r="DK10" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DL10" s="13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DM10" s="13" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DN10" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DO10" s="13" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="DP10" s="13" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="DQ10" s="13" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DR10" s="13" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DS10" s="13" t="inlineStr">
+      <c r="DL10" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DM10" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DN10" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO10" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="DP10" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="DQ10" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DR10" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DS10" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -19410,47 +19350,47 @@
           <t>A</t>
         </is>
       </c>
-      <c r="DU10" s="13" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DV10" s="13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DW10" s="13" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DX10" s="13" t="inlineStr">
+      <c r="DU10" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DV10" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DW10" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DX10" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="DY10" s="13" t="inlineStr">
+      <c r="DY10" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DZ10" s="13" t="inlineStr">
+      <c r="DZ10" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="EA10" s="13" t="inlineStr">
+      <c r="EA10" s="5" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="EB10" s="13" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="EC10" s="13" t="inlineStr">
+      <c r="EB10" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EC10" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -19495,7 +19435,7 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="EL10" s="15" t="inlineStr">
+      <c r="EL10" s="8" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -19555,12 +19495,12 @@
           <t>K</t>
         </is>
       </c>
-      <c r="EX10" s="15" t="inlineStr">
+      <c r="EX10" s="8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="EY10" s="15" t="inlineStr">
+      <c r="EY10" s="8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -19645,37 +19585,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="FP10" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="FQ10" s="9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="FR10" s="10" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="FS10" s="10" t="inlineStr">
+      <c r="FP10" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="FQ10" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="FR10" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="FS10" s="5" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="FT10" s="10" t="inlineStr">
+      <c r="FT10" s="6" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="FU10" s="10" t="inlineStr">
+      <c r="FU10" s="5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="FV10" s="9" t="inlineStr">
+      <c r="FV10" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -19685,47 +19625,47 @@
           <t>F</t>
         </is>
       </c>
-      <c r="FX10" s="9" t="inlineStr">
+      <c r="FX10" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="FY10" s="9" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="FZ10" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="GA10" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="GB10" s="9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="GC10" s="9" t="inlineStr">
+      <c r="FY10" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="FZ10" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="GA10" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="GB10" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="GC10" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="GD10" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="GE10" s="9" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="GF10" s="9" t="inlineStr">
+      <c r="GD10" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="GE10" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="GF10" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -19750,7 +19690,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="GK10" s="8" t="inlineStr">
+      <c r="GK10" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -19760,7 +19700,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="GM10" s="8" t="inlineStr">
+      <c r="GM10" s="7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -19875,17 +19815,17 @@
           <t>K</t>
         </is>
       </c>
-      <c r="HJ10" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="HK10" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="HL10" s="9" t="inlineStr">
+      <c r="HJ10" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="HK10" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="HL10" s="5" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -19910,52 +19850,52 @@
           <t>F</t>
         </is>
       </c>
-      <c r="HQ10" s="10" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="HR10" s="10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="HS10" s="10" t="inlineStr">
+      <c r="HQ10" s="6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="HR10" s="6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="HS10" s="5" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="HT10" s="9" t="inlineStr">
+      <c r="HT10" s="5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="HU10" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="HV10" s="9" t="inlineStr">
+      <c r="HU10" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="HV10" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="HW10" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="HX10" s="9" t="inlineStr">
+      <c r="HW10" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="HX10" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="HY10" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="HZ10" s="9" t="inlineStr">
+      <c r="HY10" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="HZ10" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -19985,32 +19925,32 @@
           <t>P</t>
         </is>
       </c>
-      <c r="IF10" s="10" t="inlineStr">
+      <c r="IF10" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="IG10" s="10" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="IH10" s="10" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="II10" s="10" t="inlineStr">
+      <c r="IG10" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="IH10" s="3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="II10" s="2" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="IJ10" s="10" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="IK10" s="10" t="inlineStr">
+      <c r="IJ10" s="2" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="IK10" s="3" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -20385,37 +20325,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="LH10" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="LI10" s="8" t="inlineStr">
+      <c r="LH10" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="LI10" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="LJ10" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="LK10" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="LL10" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="LM10" s="8" t="inlineStr">
+      <c r="LJ10" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="LK10" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="LL10" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="LM10" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="LN10" s="8" t="inlineStr">
+      <c r="LN10" s="7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -20440,22 +20380,22 @@
           <t>K</t>
         </is>
       </c>
-      <c r="LS10" s="8" t="inlineStr">
+      <c r="LS10" s="7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="LT10" s="8" t="inlineStr">
+      <c r="LT10" s="7" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="LU10" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="LV10" s="8" t="inlineStr">
+      <c r="LU10" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LV10" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -20535,77 +20475,77 @@
           <t>R</t>
         </is>
       </c>
-      <c r="ML10" s="11" t="inlineStr">
+      <c r="ML10" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="MM10" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="MN10" s="11" t="inlineStr">
+      <c r="MM10" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="MN10" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="MO10" s="11" t="inlineStr">
+      <c r="MO10" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="MP10" s="11" t="inlineStr">
+      <c r="MP10" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="MQ10" s="11" t="inlineStr">
+      <c r="MQ10" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="MR10" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="MS10" s="11" t="inlineStr">
+      <c r="MR10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="MS10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="MT10" s="11" t="inlineStr">
+      <c r="MT10" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="MU10" s="11" t="inlineStr">
+      <c r="MU10" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="MV10" s="11" t="inlineStr">
+      <c r="MV10" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="MW10" s="11" t="inlineStr">
+      <c r="MW10" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="MX10" s="11" t="inlineStr">
+      <c r="MX10" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="MY10" s="11" t="inlineStr">
+      <c r="MY10" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="MZ10" s="11" t="inlineStr">
+      <c r="MZ10" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -20655,77 +20595,77 @@
           <t>E</t>
         </is>
       </c>
-      <c r="NJ10" s="9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="NK10" s="9" t="inlineStr">
+      <c r="NJ10" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="NK10" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="NL10" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="NM10" s="9" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="NN10" s="9" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="NO10" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="NP10" s="9" t="inlineStr">
+      <c r="NL10" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="NM10" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="NN10" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="NO10" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="NP10" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="NQ10" s="9" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="NR10" s="9" t="inlineStr">
+      <c r="NQ10" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="NR10" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="NS10" s="9" t="inlineStr">
+      <c r="NS10" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="NT10" s="9" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="NU10" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="NV10" s="9" t="inlineStr">
+      <c r="NT10" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="NU10" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="NV10" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="NW10" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="NX10" s="9" t="inlineStr">
+      <c r="NW10" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="NX10" s="5" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -21232,7 +21172,7 @@
           <t>E</t>
         </is>
       </c>
-      <c r="BM11" s="10" t="inlineStr">
+      <c r="BM11" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -21297,7 +21237,7 @@
           <t>I</t>
         </is>
       </c>
-      <c r="BZ11" s="12" t="inlineStr">
+      <c r="BZ11" s="4" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -21487,7 +21427,7 @@
           <t>M</t>
         </is>
       </c>
-      <c r="DL11" s="10" t="inlineStr">
+      <c r="DL11" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -21612,12 +21552,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="EK11" s="15" t="inlineStr">
+      <c r="EK11" s="8" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="EL11" s="15" t="inlineStr">
+      <c r="EL11" s="8" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -21677,22 +21617,22 @@
           <t>K</t>
         </is>
       </c>
-      <c r="EX11" s="15" t="inlineStr">
+      <c r="EX11" s="8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="EY11" s="15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="EZ11" s="15" t="inlineStr">
+      <c r="EY11" s="8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EZ11" s="8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="FA11" s="15" t="inlineStr">
+      <c r="FA11" s="8" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -21767,47 +21707,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="FP11" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="FQ11" s="9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="FR11" s="10" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="FS11" s="10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="FT11" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="FU11" s="10" t="inlineStr">
+      <c r="FP11" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="FQ11" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="FR11" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="FS11" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="FT11" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="FU11" s="5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="FV11" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="FW11" s="9" t="inlineStr">
+      <c r="FV11" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="FW11" s="5" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="FX11" s="9" t="inlineStr">
+      <c r="FX11" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -21827,27 +21767,27 @@
           <t>D</t>
         </is>
       </c>
-      <c r="GB11" s="9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="GC11" s="9" t="inlineStr">
+      <c r="GB11" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="GC11" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="GD11" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="GE11" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="GF11" s="9" t="inlineStr">
+      <c r="GD11" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="GE11" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="GF11" s="5" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -21997,32 +21937,32 @@
           <t>K</t>
         </is>
       </c>
-      <c r="HJ11" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="HK11" s="9" t="inlineStr">
+      <c r="HJ11" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="HK11" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="HL11" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="HM11" s="10" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="HN11" s="9" t="inlineStr">
+      <c r="HL11" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="HM11" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="HN11" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="HO11" s="9" t="inlineStr">
+      <c r="HO11" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -22042,42 +21982,42 @@
           <t>D</t>
         </is>
       </c>
-      <c r="HS11" s="10" t="inlineStr">
+      <c r="HS11" s="5" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="HT11" s="9" t="inlineStr">
+      <c r="HT11" s="5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="HU11" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="HV11" s="9" t="inlineStr">
+      <c r="HU11" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="HV11" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="HW11" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="HX11" s="9" t="inlineStr">
+      <c r="HW11" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="HX11" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="HY11" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="HZ11" s="9" t="inlineStr">
+      <c r="HY11" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="HZ11" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -22122,12 +22062,12 @@
           <t>M</t>
         </is>
       </c>
-      <c r="II11" s="10" t="inlineStr">
+      <c r="II11" s="2" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="IJ11" s="10" t="inlineStr">
+      <c r="IJ11" s="2" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -22252,12 +22192,12 @@
           <t>V</t>
         </is>
       </c>
-      <c r="JI11" s="10" t="inlineStr">
+      <c r="JI11" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="JJ11" s="10" t="inlineStr">
+      <c r="JJ11" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -22402,27 +22342,27 @@
           <t>E</t>
         </is>
       </c>
-      <c r="KM11" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="KN11" s="10" t="inlineStr">
+      <c r="KM11" s="6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="KN11" s="6" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="KO11" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="KP11" s="10" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KQ11" s="10" t="inlineStr">
+      <c r="KO11" s="6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="KP11" s="6" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KQ11" s="6" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -22687,7 +22627,7 @@
           <t>N</t>
         </is>
       </c>
-      <c r="MR11" s="15" t="inlineStr">
+      <c r="MR11" s="8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -25351,72 +25291,72 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AN13" s="9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO13" s="9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP13" s="9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AQ13" s="9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR13" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AS13" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AT13" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AU13" s="17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AV13" s="17" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AW13" s="9" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="AX13" s="9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AY13" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AZ13" s="9" t="inlineStr">
+      <c r="AN13" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO13" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP13" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ13" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR13" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AS13" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT13" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AU13" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AV13" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AW13" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="AX13" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AY13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AZ13" s="7" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="BA13" s="9" t="inlineStr">
+      <c r="BA13" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -25426,82 +25366,82 @@
           <t>-</t>
         </is>
       </c>
-      <c r="BC13" s="8" t="inlineStr">
+      <c r="BC13" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="BD13" s="8" t="inlineStr">
+      <c r="BD13" s="7" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="BE13" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="BF13" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="BG13" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="BH13" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BI13" s="8" t="inlineStr">
+      <c r="BE13" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="BF13" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="BG13" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="BH13" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BI13" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="BJ13" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BK13" s="8" t="inlineStr">
+      <c r="BJ13" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BK13" s="7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="BL13" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BM13" s="8" t="inlineStr">
+      <c r="BL13" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BM13" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="BN13" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="BO13" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BP13" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BQ13" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BR13" s="8" t="inlineStr">
+      <c r="BN13" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="BO13" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BP13" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BQ13" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BR13" s="7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -25516,7 +25456,7 @@
           <t>E</t>
         </is>
       </c>
-      <c r="BU13" s="8" t="inlineStr">
+      <c r="BU13" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -25546,7 +25486,7 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CA13" s="15" t="inlineStr">
+      <c r="CA13" s="8" t="inlineStr">
         <is>
           <t>I</t>
         </is>
@@ -25561,7 +25501,7 @@
           <t>T</t>
         </is>
       </c>
-      <c r="CD13" s="17" t="inlineStr">
+      <c r="CD13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -25856,12 +25796,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="EK13" s="15" t="inlineStr">
+      <c r="EK13" s="8" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="EL13" s="15" t="inlineStr">
+      <c r="EL13" s="8" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -26276,17 +26216,17 @@
           <t>A</t>
         </is>
       </c>
-      <c r="HQ13" s="10" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="HR13" s="10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="HS13" s="10" t="inlineStr">
+      <c r="HQ13" s="6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="HR13" s="6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="HS13" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -26351,17 +26291,17 @@
           <t>A</t>
         </is>
       </c>
-      <c r="IF13" s="10" t="inlineStr">
+      <c r="IF13" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="IG13" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="IH13" s="10" t="inlineStr">
+      <c r="IG13" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="IH13" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -26646,27 +26586,27 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="KM13" s="10" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KN13" s="10" t="inlineStr">
+      <c r="KM13" s="6" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KN13" s="6" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="KO13" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="KP13" s="10" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KQ13" s="10" t="inlineStr">
+      <c r="KO13" s="6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="KP13" s="6" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KQ13" s="6" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -26931,7 +26871,7 @@
           <t>N</t>
         </is>
       </c>
-      <c r="MR13" s="15" t="inlineStr">
+      <c r="MR13" s="8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -27026,17 +26966,17 @@
           <t>L</t>
         </is>
       </c>
-      <c r="NK13" s="10" t="inlineStr">
+      <c r="NK13" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="NL13" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="NM13" s="10" t="inlineStr">
+      <c r="NL13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="NM13" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -29595,112 +29535,112 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AN15" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO15" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AP15" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AQ15" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR15" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AS15" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AT15" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AU15" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV15" s="8" t="inlineStr">
+      <c r="AN15" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO15" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AP15" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ15" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR15" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AS15" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT15" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AU15" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV15" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AW15" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="AX15" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AY15" s="8" t="inlineStr">
+      <c r="AW15" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="AX15" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AY15" s="7" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="AZ15" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA15" s="8" t="inlineStr">
+      <c r="AZ15" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BA15" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="BB15" s="8" t="inlineStr">
+      <c r="BB15" s="7" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="BC15" s="8" t="inlineStr">
+      <c r="BC15" s="7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="BD15" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BE15" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="BF15" s="8" t="inlineStr">
+      <c r="BD15" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BE15" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="BF15" s="7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="BG15" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="BH15" s="8" t="inlineStr">
+      <c r="BG15" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="BH15" s="7" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="BI15" s="8" t="inlineStr">
+      <c r="BI15" s="7" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -29720,7 +29660,7 @@
           <t>D</t>
         </is>
       </c>
-      <c r="BM15" s="10" t="inlineStr">
+      <c r="BM15" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -29775,82 +29715,82 @@
           <t>R</t>
         </is>
       </c>
-      <c r="BX15" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="BY15" s="11" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="BZ15" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA15" s="11" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="CB15" s="11" t="inlineStr">
+      <c r="BX15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="BZ15" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CB15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="CC15" s="11" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="CD15" s="11" t="inlineStr">
+      <c r="CC15" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CD15" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="CE15" s="11" t="inlineStr">
+      <c r="CE15" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="CF15" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="CG15" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CH15" s="11" t="inlineStr">
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="CG15" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CH15" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="CI15" s="11" t="inlineStr">
+      <c r="CI15" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="CJ15" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK15" s="11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL15" s="11" t="inlineStr">
+      <c r="CJ15" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL15" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="CM15" s="11" t="inlineStr">
+      <c r="CM15" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -29930,137 +29870,137 @@
           <t>K</t>
         </is>
       </c>
-      <c r="DC15" s="18" t="inlineStr">
+      <c r="DC15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="DD15" s="18" t="inlineStr">
+      <c r="DD15" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DE15" s="18" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="DF15" s="14" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DG15" s="14" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DH15" s="14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DI15" s="14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DJ15" s="14" t="inlineStr">
+      <c r="DE15" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="DF15" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DG15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DH15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DI15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DJ15" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="DK15" s="14" t="inlineStr">
+      <c r="DK15" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DL15" s="14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DM15" s="14" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DN15" s="14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DO15" s="14" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="DP15" s="14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="DQ15" s="14" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DR15" s="14" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DS15" s="18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DT15" s="18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DU15" s="18" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DV15" s="18" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DW15" s="18" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DX15" s="18" t="inlineStr">
+      <c r="DL15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DM15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DN15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO15" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="DP15" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="DQ15" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DR15" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DS15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DT15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DU15" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DV15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DW15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DX15" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="DY15" s="18" t="inlineStr">
+      <c r="DY15" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DZ15" s="18" t="inlineStr">
+      <c r="DZ15" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="EA15" s="18" t="inlineStr">
+      <c r="EA15" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="EB15" s="18" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="EC15" s="18" t="inlineStr">
+      <c r="EB15" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EC15" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -30505,12 +30445,12 @@
           <t>L</t>
         </is>
       </c>
-      <c r="HN15" s="10" t="inlineStr">
+      <c r="HN15" s="6" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="HO15" s="10" t="inlineStr">
+      <c r="HO15" s="6" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -30865,77 +30805,77 @@
           <t>R</t>
         </is>
       </c>
-      <c r="KH15" s="11" t="inlineStr">
+      <c r="KH15" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="KI15" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KJ15" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KK15" s="11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="KL15" s="11" t="inlineStr">
+      <c r="KI15" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KJ15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KK15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="KL15" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="KM15" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KN15" s="11" t="inlineStr">
+      <c r="KM15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KN15" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="KO15" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="KP15" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KQ15" s="11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="KR15" s="11" t="inlineStr">
+      <c r="KO15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="KP15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KQ15" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="KR15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="KS15" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="KT15" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KU15" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KV15" s="11" t="inlineStr">
+      <c r="KS15" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="KT15" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KU15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KV15" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -30945,7 +30885,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="KX15" s="11" t="inlineStr">
+      <c r="KX15" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -30995,152 +30935,152 @@
           <t>R</t>
         </is>
       </c>
-      <c r="LH15" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="LI15" s="11" t="inlineStr">
+      <c r="LH15" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="LI15" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="LJ15" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="LK15" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="LL15" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="LM15" s="11" t="inlineStr">
+      <c r="LJ15" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="LK15" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="LL15" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="LM15" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="LN15" s="11" t="inlineStr">
+      <c r="LN15" s="7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="LO15" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="LP15" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="LQ15" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="LR15" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="LS15" s="11" t="inlineStr">
+      <c r="LO15" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="LP15" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LQ15" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LR15" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LS15" s="7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="LT15" s="11" t="inlineStr">
+      <c r="LT15" s="7" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="LU15" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="LV15" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="LW15" s="11" t="inlineStr">
+      <c r="LU15" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="LV15" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="LW15" s="7" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="LX15" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="LY15" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="LZ15" s="11" t="inlineStr">
+      <c r="LX15" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="LY15" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="LZ15" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="MA15" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="MB15" s="11" t="inlineStr">
+      <c r="MA15" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="MB15" s="7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="MC15" s="11" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="MD15" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="ME15" s="11" t="inlineStr">
+      <c r="MC15" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="MD15" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="ME15" s="7" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="MF15" s="11" t="inlineStr">
+      <c r="MF15" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="MG15" s="11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="MH15" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="MI15" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="MJ15" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="MK15" s="11" t="inlineStr">
+      <c r="MG15" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="MH15" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="MI15" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="MJ15" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="MK15" s="7" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -31270,17 +31210,17 @@
           <t>L</t>
         </is>
       </c>
-      <c r="NK15" s="10" t="inlineStr">
+      <c r="NK15" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="NL15" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="NM15" s="10" t="inlineStr">
+      <c r="NL15" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="NM15" s="5" t="inlineStr">
         <is>
           <t>G</t>
         </is>
@@ -34349,7 +34289,7 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="EL17" s="15" t="inlineStr">
+      <c r="EL17" s="8" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -34979,82 +34919,82 @@
           <t>K</t>
         </is>
       </c>
-      <c r="JH17" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JI17" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="JJ17" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JK17" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JL17" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JM17" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JN17" s="11" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="JO17" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JP17" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="JQ17" s="11" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="JR17" s="11" t="inlineStr">
+      <c r="JH17" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JI17" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="JJ17" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JK17" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JL17" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JM17" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JN17" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="JO17" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JP17" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="JQ17" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="JR17" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="JS17" s="11" t="inlineStr">
+      <c r="JS17" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="JT17" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="JU17" s="11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="JV17" s="11" t="inlineStr">
+      <c r="JT17" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="JU17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JV17" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="JW17" s="11" t="inlineStr">
+      <c r="JW17" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -35109,37 +35049,37 @@
           <t>R</t>
         </is>
       </c>
-      <c r="KH17" s="8" t="inlineStr">
+      <c r="KH17" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="KI17" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KJ17" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KK17" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="KL17" s="8" t="inlineStr">
+      <c r="KI17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KJ17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KK17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="KL17" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="KM17" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KN17" s="8" t="inlineStr">
+      <c r="KM17" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KN17" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
@@ -35149,37 +35089,37 @@
           <t>A</t>
         </is>
       </c>
-      <c r="KP17" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KQ17" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="KR17" s="8" t="inlineStr">
+      <c r="KP17" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KQ17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="KR17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="KS17" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="KT17" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KU17" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="KV17" s="8" t="inlineStr">
+      <c r="KS17" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="KT17" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KU17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="KV17" t="inlineStr">
         <is>
           <t>L</t>
         </is>
@@ -35189,7 +35129,7 @@
           <t>V</t>
         </is>
       </c>
-      <c r="KX17" s="8" t="inlineStr">
+      <c r="KX17" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -35414,12 +35354,12 @@
           <t>F</t>
         </is>
       </c>
-      <c r="MQ17" s="12" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="MR17" s="15" t="inlineStr">
+      <c r="MQ17" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="MR17" s="8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -36136,7 +36076,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="BW18" s="11" t="inlineStr">
+      <c r="BW18" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -36296,137 +36236,137 @@
           <t>K</t>
         </is>
       </c>
-      <c r="DC18" s="13" t="inlineStr">
+      <c r="DC18" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="DD18" s="13" t="inlineStr">
+      <c r="DD18" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DE18" s="13" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="DF18" s="13" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DG18" s="13" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DH18" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DI18" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DJ18" s="13" t="inlineStr">
+      <c r="DE18" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="DF18" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DG18" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DH18" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DI18" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DJ18" s="5" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="DK18" s="13" t="inlineStr">
+      <c r="DK18" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DL18" s="13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DM18" s="13" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DN18" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DO18" s="13" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="DP18" s="13" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="DQ18" s="14" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DR18" s="13" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DS18" s="13" t="inlineStr">
+      <c r="DL18" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DM18" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DN18" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO18" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="DP18" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="DQ18" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DR18" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DS18" s="5" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="DT18" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DU18" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DV18" s="13" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DW18" s="13" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DX18" s="13" t="inlineStr">
+      <c r="DT18" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DU18" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DV18" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DW18" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DX18" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="DY18" s="13" t="inlineStr">
+      <c r="DY18" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DZ18" s="13" t="inlineStr">
+      <c r="DZ18" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="EA18" s="13" t="inlineStr">
+      <c r="EA18" s="5" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="EB18" s="13" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="EC18" s="13" t="inlineStr">
+      <c r="EB18" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EC18" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -37231,87 +37171,87 @@
           <t>R</t>
         </is>
       </c>
-      <c r="KH18" s="8" t="inlineStr">
+      <c r="KH18" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="KI18" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KJ18" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KK18" s="8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="KL18" s="8" t="inlineStr">
+      <c r="KI18" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KJ18" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KK18" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="KL18" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="KM18" s="10" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KN18" s="10" t="inlineStr">
+      <c r="KM18" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KN18" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="KO18" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="KP18" s="10" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KQ18" s="10" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="KR18" s="8" t="inlineStr">
+      <c r="KO18" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="KP18" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KQ18" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="KR18" s="7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="KS18" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="KT18" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KU18" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="KV18" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KW18" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="KX18" s="8" t="inlineStr">
+      <c r="KS18" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="KT18" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KU18" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="KV18" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KW18" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="KX18" s="7" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -37536,12 +37476,12 @@
           <t>F</t>
         </is>
       </c>
-      <c r="MQ18" s="12" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="MR18" s="15" t="inlineStr">
+      <c r="MQ18" s="4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="MR18" s="8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -38273,7 +38213,7 @@
           <t>I</t>
         </is>
       </c>
-      <c r="BZ19" s="12" t="inlineStr">
+      <c r="BZ19" s="4" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -38418,52 +38358,52 @@
           <t>K</t>
         </is>
       </c>
-      <c r="DC19" s="11" t="inlineStr">
+      <c r="DC19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="DD19" s="11" t="inlineStr">
+      <c r="DD19" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DE19" s="11" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="DF19" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DG19" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DH19" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DI19" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DJ19" s="11" t="inlineStr">
+      <c r="DE19" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="DF19" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DG19" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DH19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DI19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DJ19" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="DK19" s="11" t="inlineStr">
+      <c r="DK19" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DL19" s="10" t="inlineStr">
+      <c r="DL19" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -38473,12 +38413,12 @@
           <t>G</t>
         </is>
       </c>
-      <c r="DN19" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DO19" s="11" t="inlineStr">
+      <c r="DN19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO19" t="inlineStr">
         <is>
           <t>I</t>
         </is>
@@ -38493,62 +38433,62 @@
           <t>V</t>
         </is>
       </c>
-      <c r="DR19" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DS19" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DT19" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DU19" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DV19" s="11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DW19" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DX19" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DY19" s="11" t="inlineStr">
+      <c r="DR19" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DS19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DT19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DU19" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DV19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DW19" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DX19" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DY19" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DZ19" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="EA19" s="11" t="inlineStr">
+      <c r="DZ19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="EA19" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="EB19" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="EC19" s="11" t="inlineStr">
+      <c r="EB19" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EC19" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -38653,22 +38593,22 @@
           <t>K</t>
         </is>
       </c>
-      <c r="EX19" s="15" t="inlineStr">
+      <c r="EX19" s="8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="EY19" s="15" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="EZ19" s="15" t="inlineStr">
+      <c r="EY19" s="8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="EZ19" s="8" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="FA19" s="15" t="inlineStr">
+      <c r="FA19" s="8" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -38758,7 +38698,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="FS19" s="10" t="inlineStr">
+      <c r="FS19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -38768,12 +38708,12 @@
           <t>E</t>
         </is>
       </c>
-      <c r="FU19" s="10" t="inlineStr">
+      <c r="FU19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="FV19" s="10" t="inlineStr">
+      <c r="FV19" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -39093,17 +39033,17 @@
           <t>L</t>
         </is>
       </c>
-      <c r="IH19" s="17" t="inlineStr">
+      <c r="IH19" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="II19" s="10" t="inlineStr">
+      <c r="II19" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="IJ19" s="10" t="inlineStr">
+      <c r="IJ19" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -39378,27 +39318,27 @@
           <t>E</t>
         </is>
       </c>
-      <c r="KM19" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="KN19" s="10" t="inlineStr">
+      <c r="KM19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="KN19" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="KO19" s="10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="KP19" s="10" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KQ19" s="10" t="inlineStr">
+      <c r="KO19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="KP19" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KQ19" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -39658,12 +39598,12 @@
           <t>F</t>
         </is>
       </c>
-      <c r="MQ19" s="15" t="inlineStr">
+      <c r="MQ19" s="8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="MR19" s="15" t="inlineStr">
+      <c r="MR19" s="8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -40205,72 +40145,72 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AN20" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AO20" s="8" t="inlineStr">
+      <c r="AN20" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AO20" s="7" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="AP20" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AQ20" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AR20" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AS20" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="AT20" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AU20" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AV20" s="8" t="inlineStr">
+      <c r="AP20" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AQ20" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AR20" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AS20" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="AT20" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AU20" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AV20" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AW20" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="AX20" s="8" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AY20" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AZ20" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BA20" s="8" t="inlineStr">
+      <c r="AW20" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="AX20" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AY20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AZ20" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BA20" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -40395,7 +40335,7 @@
           <t>I</t>
         </is>
       </c>
-      <c r="BZ20" s="12" t="inlineStr">
+      <c r="BZ20" s="4" t="inlineStr">
         <is>
           <t>T</t>
         </is>
@@ -40540,137 +40480,137 @@
           <t>K</t>
         </is>
       </c>
-      <c r="DC20" s="18" t="inlineStr">
+      <c r="DC20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="DD20" s="18" t="inlineStr">
+      <c r="DD20" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DE20" s="18" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="DF20" s="18" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DG20" s="18" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DH20" s="18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DI20" s="18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DJ20" s="18" t="inlineStr">
+      <c r="DE20" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="DF20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DG20" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DH20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DI20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DJ20" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="DK20" s="18" t="inlineStr">
+      <c r="DK20" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DL20" s="18" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DM20" s="18" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DN20" s="18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DO20" s="18" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="DP20" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="DQ20" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DR20" s="18" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DS20" s="18" t="inlineStr">
+      <c r="DL20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DM20" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DN20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO20" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="DP20" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="DQ20" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DR20" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DS20" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="DT20" s="18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DU20" s="18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DV20" s="18" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DW20" s="18" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DX20" s="18" t="inlineStr">
+      <c r="DT20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DU20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DV20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DW20" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DX20" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="DY20" s="18" t="inlineStr">
+      <c r="DY20" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DZ20" s="18" t="inlineStr">
+      <c r="DZ20" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="EA20" s="18" t="inlineStr">
+      <c r="EA20" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="EB20" s="18" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="EC20" s="18" t="inlineStr">
+      <c r="EB20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EC20" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -40710,12 +40650,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="EK20" s="15" t="inlineStr">
+      <c r="EK20" s="8" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="EL20" s="15" t="inlineStr">
+      <c r="EL20" s="8" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -40970,7 +40910,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="GK20" s="8" t="inlineStr">
+      <c r="GK20" t="inlineStr">
         <is>
           <t>K</t>
         </is>
@@ -41215,7 +41155,7 @@
           <t>L</t>
         </is>
       </c>
-      <c r="IH20" s="17" t="inlineStr">
+      <c r="IH20" s="7" t="inlineStr">
         <is>
           <t>M</t>
         </is>
@@ -41345,132 +41285,132 @@
           <t>K</t>
         </is>
       </c>
-      <c r="JH20" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JI20" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="JJ20" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JK20" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JL20" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JM20" s="8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="JN20" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="JO20" s="8" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JP20" s="8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="JQ20" s="8" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="JR20" s="8" t="inlineStr">
+      <c r="JH20" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JI20" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="JJ20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JK20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JL20" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JM20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="JN20" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="JO20" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JP20" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="JQ20" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="JR20" s="7" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="JS20" s="8" t="inlineStr">
+      <c r="JS20" s="7" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="JT20" s="8" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="JU20" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="JV20" s="11" t="inlineStr">
+      <c r="JT20" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="JU20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="JV20" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="JW20" s="8" t="inlineStr">
+      <c r="JW20" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="JX20" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="JY20" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="JZ20" s="11" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="KA20" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="KB20" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="KC20" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="KD20" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="KE20" s="11" t="inlineStr">
+      <c r="JX20" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="JY20" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="JZ20" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="KA20" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="KB20" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="KC20" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="KD20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="KE20" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="KF20" s="11" t="inlineStr">
+      <c r="KF20" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="KG20" s="11" t="inlineStr">
+      <c r="KG20" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -41680,77 +41620,77 @@
           <t>K</t>
         </is>
       </c>
-      <c r="LW20" s="11" t="inlineStr">
+      <c r="LW20" s="7" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="LX20" s="11" t="inlineStr">
+      <c r="LX20" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="LY20" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="LZ20" s="11" t="inlineStr">
+      <c r="LY20" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="LZ20" s="7" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="MA20" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="MB20" s="11" t="inlineStr">
+      <c r="MA20" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="MB20" s="7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="MC20" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="MD20" s="11" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="ME20" s="11" t="inlineStr">
+      <c r="MC20" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="MD20" s="7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="ME20" s="7" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="MF20" s="11" t="inlineStr">
+      <c r="MF20" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="MG20" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="MH20" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="MI20" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="MJ20" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="MK20" s="11" t="inlineStr">
+      <c r="MG20" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="MH20" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="MI20" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="MJ20" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="MK20" s="7" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -41875,77 +41815,77 @@
           <t>K</t>
         </is>
       </c>
-      <c r="NJ20" s="9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="NK20" s="9" t="inlineStr">
+      <c r="NJ20" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="NK20" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="NL20" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="NM20" s="9" t="inlineStr">
+      <c r="NL20" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="NM20" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="NN20" s="9" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="NO20" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="NP20" s="9" t="inlineStr">
+      <c r="NN20" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="NO20" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="NP20" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="NQ20" s="9" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="NR20" s="9" t="inlineStr">
+      <c r="NQ20" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="NR20" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="NS20" s="9" t="inlineStr">
+      <c r="NS20" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="NT20" s="9" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="NU20" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="NV20" s="9" t="inlineStr">
+      <c r="NT20" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="NU20" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="NV20" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="NW20" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="NX20" s="9" t="inlineStr">
+      <c r="NW20" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="NX20" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -42412,22 +42352,22 @@
           <t>G</t>
         </is>
       </c>
-      <c r="BE21" s="11" t="inlineStr">
+      <c r="BE21" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="BF21" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="BG21" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="BH21" s="11" t="inlineStr">
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="BH21" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -42507,82 +42447,82 @@
           <t>R</t>
         </is>
       </c>
-      <c r="BX21" s="11" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="BY21" s="11" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="BZ21" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CA21" s="15" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="CB21" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CC21" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CD21" s="11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="CE21" s="11" t="inlineStr">
+      <c r="BX21" s="7" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="BY21" s="7" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="BZ21" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CA21" s="8" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="CB21" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="CC21" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CD21" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="CE21" s="7" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="CF21" s="11" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="CG21" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CH21" s="11" t="inlineStr">
+      <c r="CF21" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="CG21" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CH21" s="7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="CI21" s="11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="CJ21" s="11" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="CK21" s="11" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="CL21" s="11" t="inlineStr">
+      <c r="CI21" s="7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="CJ21" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="CK21" s="7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="CL21" s="7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="CM21" s="11" t="inlineStr">
+      <c r="CM21" s="7" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -42662,137 +42602,137 @@
           <t>K</t>
         </is>
       </c>
-      <c r="DC21" s="9" t="inlineStr">
+      <c r="DC21" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="DD21" s="9" t="inlineStr">
+      <c r="DD21" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DE21" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="DF21" s="14" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DG21" s="14" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DH21" s="14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DI21" s="14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DJ21" s="14" t="inlineStr">
+      <c r="DE21" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="DF21" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="DG21" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DH21" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DI21" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DJ21" s="5" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="DK21" s="14" t="inlineStr">
+      <c r="DK21" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DL21" s="14" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DM21" s="14" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DN21" s="14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DO21" s="14" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="DP21" s="14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="DQ21" s="14" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DR21" s="13" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="DS21" s="9" t="inlineStr">
+      <c r="DL21" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DM21" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DN21" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DO21" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="DP21" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="DQ21" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DR21" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="DS21" s="5" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="DT21" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DU21" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="DV21" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="DW21" s="9" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="DX21" s="9" t="inlineStr">
+      <c r="DT21" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DU21" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="DV21" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="DW21" s="5" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="DX21" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="DY21" s="9" t="inlineStr">
+      <c r="DY21" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="DZ21" s="9" t="inlineStr">
+      <c r="DZ21" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="EA21" s="9" t="inlineStr">
+      <c r="EA21" s="5" t="inlineStr">
         <is>
           <t>Q</t>
         </is>
       </c>
-      <c r="EB21" s="9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="EC21" s="9" t="inlineStr">
+      <c r="EB21" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="EC21" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -43217,87 +43157,87 @@
           <t>K</t>
         </is>
       </c>
-      <c r="HJ21" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="HK21" s="9" t="inlineStr">
+      <c r="HJ21" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="HK21" s="5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="HL21" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="HM21" s="9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="HN21" s="9" t="inlineStr">
+      <c r="HL21" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="HM21" s="5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="HN21" s="5" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="HO21" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="HP21" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="HQ21" s="9" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="HR21" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="HS21" s="9" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="HT21" s="9" t="inlineStr">
+      <c r="HO21" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="HP21" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="HQ21" s="5" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="HR21" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="HS21" s="5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="HT21" s="5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="HU21" s="9" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="HV21" s="9" t="inlineStr">
+      <c r="HU21" s="5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="HV21" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="HW21" s="9" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="HX21" s="9" t="inlineStr">
+      <c r="HW21" s="5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="HX21" s="5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="HY21" s="9" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="HZ21" s="9" t="inlineStr">
+      <c r="HY21" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="HZ21" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
@@ -43902,12 +43842,12 @@
           <t>F</t>
         </is>
       </c>
-      <c r="MQ21" s="15" t="inlineStr">
+      <c r="MQ21" s="8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="MR21" s="15" t="inlineStr">
+      <c r="MR21" s="8" t="inlineStr">
         <is>
           <t>G</t>
         </is>
